--- a/Data_frame/balancos_definitivos/BRGE6.xlsx
+++ b/Data_frame/balancos_definitivos/BRGE6.xlsx
@@ -16911,27 +16911,29 @@
         <v>136</v>
       </c>
       <c r="AI57" t="n">
+        <v>22882</v>
+      </c>
+      <c r="AJ57" t="n">
         <v>134</v>
       </c>
-      <c r="AJ57" t="n">
+      <c r="AK57" t="n">
         <v>136</v>
       </c>
-      <c r="AK57" t="n">
+      <c r="AL57" t="n">
         <v>145</v>
       </c>
-      <c r="AL57" t="n">
+      <c r="AM57" t="n">
         <v>14923</v>
       </c>
-      <c r="AM57" t="n">
+      <c r="AN57" t="n">
         <v>4862</v>
       </c>
-      <c r="AN57" t="n">
+      <c r="AO57" t="n">
         <v>3726</v>
       </c>
-      <c r="AO57" t="n">
+      <c r="AP57" t="n">
         <v>4227</v>
       </c>
-      <c r="AP57" t="inlineStr"/>
       <c r="AQ57" t="inlineStr"/>
       <c r="AR57" t="inlineStr"/>
       <c r="AS57" t="inlineStr"/>
@@ -17092,27 +17094,29 @@
         <v>-19</v>
       </c>
       <c r="AI58" t="n">
-        <v>-19</v>
+        <v>60</v>
       </c>
       <c r="AJ58" t="n">
         <v>-19</v>
       </c>
       <c r="AK58" t="n">
+        <v>-19</v>
+      </c>
+      <c r="AL58" t="n">
         <v>-21</v>
       </c>
-      <c r="AL58" t="n">
+      <c r="AM58" t="n">
         <v>59</v>
       </c>
-      <c r="AM58" t="n">
+      <c r="AN58" t="n">
         <v>-692</v>
       </c>
-      <c r="AN58" t="n">
+      <c r="AO58" t="n">
         <v>-531</v>
       </c>
-      <c r="AO58" t="n">
+      <c r="AP58" t="n">
         <v>-602</v>
       </c>
-      <c r="AP58" t="inlineStr"/>
       <c r="AQ58" t="inlineStr"/>
       <c r="AR58" t="inlineStr"/>
       <c r="AS58" t="inlineStr"/>
@@ -17273,31 +17277,31 @@
         <v>117</v>
       </c>
       <c r="AI59" t="n">
+        <v>22942</v>
+      </c>
+      <c r="AJ59" t="n">
         <v>115</v>
       </c>
-      <c r="AJ59" t="n">
+      <c r="AK59" t="n">
         <v>117</v>
       </c>
-      <c r="AK59" t="n">
+      <c r="AL59" t="n">
         <v>124</v>
       </c>
-      <c r="AL59" t="n">
+      <c r="AM59" t="n">
         <v>14982</v>
       </c>
-      <c r="AM59" t="n">
+      <c r="AN59" t="n">
         <v>4170</v>
       </c>
-      <c r="AN59" t="n">
+      <c r="AO59" t="n">
         <v>3195</v>
       </c>
-      <c r="AO59" t="n">
+      <c r="AP59" t="n">
         <v>3625</v>
       </c>
-      <c r="AP59" t="n">
+      <c r="AQ59" t="n">
         <v>247</v>
-      </c>
-      <c r="AQ59" t="n">
-        <v>3227</v>
       </c>
       <c r="AR59" t="n">
         <v>3227</v>
@@ -17426,31 +17430,31 @@
         <v>1095</v>
       </c>
       <c r="CH59" t="n">
+        <v>1129</v>
+      </c>
+      <c r="CI59" t="n">
         <v>1049</v>
       </c>
-      <c r="CI59" t="n">
+      <c r="CJ59" t="n">
         <v>997</v>
       </c>
-      <c r="CJ59" t="n">
+      <c r="CK59" t="n">
         <v>977</v>
       </c>
-      <c r="CK59" t="n">
+      <c r="CL59" t="n">
         <v>963</v>
       </c>
-      <c r="CL59" t="n">
+      <c r="CM59" t="n">
         <v>867</v>
       </c>
-      <c r="CM59" t="n">
+      <c r="CN59" t="n">
         <v>908</v>
       </c>
-      <c r="CN59" t="n">
+      <c r="CO59" t="n">
         <v>870</v>
       </c>
-      <c r="CO59" t="n">
+      <c r="CP59" t="n">
         <v>902</v>
-      </c>
-      <c r="CP59" t="n">
-        <v>875</v>
       </c>
       <c r="CQ59" t="n">
         <v>875</v>
@@ -17583,10 +17587,10 @@
         <v>0</v>
       </c>
       <c r="AP60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ60" t="n">
         <v>-68074</v>
-      </c>
-      <c r="AQ60" t="n">
-        <v>-16016</v>
       </c>
       <c r="AR60" t="n">
         <v>-16016</v>
@@ -17715,31 +17719,31 @@
         <v>-27640</v>
       </c>
       <c r="CH60" t="n">
+        <v>-28885</v>
+      </c>
+      <c r="CI60" t="n">
         <v>-30151</v>
       </c>
-      <c r="CI60" t="n">
+      <c r="CJ60" t="n">
         <v>-31812</v>
       </c>
-      <c r="CJ60" t="n">
+      <c r="CK60" t="n">
         <v>-34593</v>
       </c>
-      <c r="CK60" t="n">
+      <c r="CL60" t="n">
         <v>-38066</v>
       </c>
-      <c r="CL60" t="n">
+      <c r="CM60" t="n">
         <v>-39268.008</v>
       </c>
-      <c r="CM60" t="n">
+      <c r="CN60" t="n">
         <v>-38164</v>
       </c>
-      <c r="CN60" t="n">
+      <c r="CO60" t="n">
         <v>-37056</v>
       </c>
-      <c r="CO60" t="n">
+      <c r="CP60" t="n">
         <v>-37076</v>
-      </c>
-      <c r="CP60" t="n">
-        <v>-37559.008</v>
       </c>
       <c r="CQ60" t="n">
         <v>-37559.008</v>
@@ -17851,31 +17855,31 @@
         <v>117</v>
       </c>
       <c r="AI61" t="n">
+        <v>22942</v>
+      </c>
+      <c r="AJ61" t="n">
         <v>115</v>
       </c>
-      <c r="AJ61" t="n">
+      <c r="AK61" t="n">
         <v>117</v>
       </c>
-      <c r="AK61" t="n">
+      <c r="AL61" t="n">
         <v>124</v>
       </c>
-      <c r="AL61" t="n">
+      <c r="AM61" t="n">
         <v>14982</v>
       </c>
-      <c r="AM61" t="n">
+      <c r="AN61" t="n">
         <v>4170</v>
       </c>
-      <c r="AN61" t="n">
+      <c r="AO61" t="n">
         <v>3195</v>
       </c>
-      <c r="AO61" t="n">
+      <c r="AP61" t="n">
         <v>3625</v>
       </c>
-      <c r="AP61" t="n">
+      <c r="AQ61" t="n">
         <v>-67827</v>
-      </c>
-      <c r="AQ61" t="n">
-        <v>-12789</v>
       </c>
       <c r="AR61" t="n">
         <v>-12789</v>
@@ -18004,31 +18008,31 @@
         <v>-26545</v>
       </c>
       <c r="CH61" t="n">
+        <v>-27756</v>
+      </c>
+      <c r="CI61" t="n">
         <v>-29102</v>
       </c>
-      <c r="CI61" t="n">
+      <c r="CJ61" t="n">
         <v>-30815</v>
       </c>
-      <c r="CJ61" t="n">
+      <c r="CK61" t="n">
         <v>-33616</v>
       </c>
-      <c r="CK61" t="n">
+      <c r="CL61" t="n">
         <v>-37103</v>
       </c>
-      <c r="CL61" t="n">
+      <c r="CM61" t="n">
         <v>-38401.008</v>
       </c>
-      <c r="CM61" t="n">
+      <c r="CN61" t="n">
         <v>-37256</v>
       </c>
-      <c r="CN61" t="n">
+      <c r="CO61" t="n">
         <v>-36186</v>
       </c>
-      <c r="CO61" t="n">
+      <c r="CP61" t="n">
         <v>-36174</v>
-      </c>
-      <c r="CP61" t="n">
-        <v>-36684</v>
       </c>
       <c r="CQ61" t="n">
         <v>-36684</v>
@@ -18164,7 +18168,7 @@
         <v>0</v>
       </c>
       <c r="AQ62" t="n">
-        <v>-37098</v>
+        <v>0</v>
       </c>
       <c r="AR62" t="n">
         <v>-37098</v>
@@ -18293,31 +18297,31 @@
         <v>-77512</v>
       </c>
       <c r="CH62" t="n">
+        <v>-85221</v>
+      </c>
+      <c r="CI62" t="n">
         <v>-105914.016</v>
       </c>
-      <c r="CI62" t="n">
+      <c r="CJ62" t="n">
         <v>-106329</v>
       </c>
-      <c r="CJ62" t="n">
+      <c r="CK62" t="n">
         <v>-104877</v>
       </c>
-      <c r="CK62" t="n">
+      <c r="CL62" t="n">
         <v>-132311</v>
       </c>
-      <c r="CL62" t="n">
+      <c r="CM62" t="n">
         <v>-141752</v>
       </c>
-      <c r="CM62" t="n">
+      <c r="CN62" t="n">
         <v>-121695</v>
       </c>
-      <c r="CN62" t="n">
+      <c r="CO62" t="n">
         <v>-112239</v>
       </c>
-      <c r="CO62" t="n">
+      <c r="CP62" t="n">
         <v>-99358</v>
-      </c>
-      <c r="CP62" t="n">
-        <v>-89600</v>
       </c>
       <c r="CQ62" t="n">
         <v>-89600</v>
@@ -18429,31 +18433,31 @@
         <v>-680</v>
       </c>
       <c r="AI63" t="n">
+        <v>-127352</v>
+      </c>
+      <c r="AJ63" t="n">
         <v>-676</v>
       </c>
-      <c r="AJ63" t="n">
+      <c r="AK63" t="n">
         <v>-585</v>
       </c>
-      <c r="AK63" t="n">
+      <c r="AL63" t="n">
         <v>-571</v>
       </c>
-      <c r="AL63" t="n">
+      <c r="AM63" t="n">
         <v>-127878</v>
       </c>
-      <c r="AM63" t="n">
+      <c r="AN63" t="n">
         <v>-31062</v>
       </c>
-      <c r="AN63" t="n">
+      <c r="AO63" t="n">
         <v>-35333</v>
       </c>
-      <c r="AO63" t="n">
+      <c r="AP63" t="n">
         <v>-32955</v>
       </c>
-      <c r="AP63" t="n">
+      <c r="AQ63" t="n">
         <v>-95738.992</v>
-      </c>
-      <c r="AQ63" t="n">
-        <v>-35265</v>
       </c>
       <c r="AR63" t="n">
         <v>-35265</v>
@@ -18582,31 +18586,31 @@
         <v>-24944</v>
       </c>
       <c r="CH63" t="n">
+        <v>-23109</v>
+      </c>
+      <c r="CI63" t="n">
         <v>-25946</v>
       </c>
-      <c r="CI63" t="n">
+      <c r="CJ63" t="n">
         <v>-25044</v>
       </c>
-      <c r="CJ63" t="n">
+      <c r="CK63" t="n">
         <v>-28460</v>
       </c>
-      <c r="CK63" t="n">
+      <c r="CL63" t="n">
         <v>-30597</v>
       </c>
-      <c r="CL63" t="n">
+      <c r="CM63" t="n">
         <v>-34530</v>
       </c>
-      <c r="CM63" t="n">
+      <c r="CN63" t="n">
         <v>-31336</v>
       </c>
-      <c r="CN63" t="n">
+      <c r="CO63" t="n">
         <v>-34626</v>
       </c>
-      <c r="CO63" t="n">
+      <c r="CP63" t="n">
         <v>-32248</v>
-      </c>
-      <c r="CP63" t="n">
-        <v>-30690</v>
       </c>
       <c r="CQ63" t="n">
         <v>-30690</v>
@@ -18659,9 +18663,7 @@
       <c r="AN64" t="inlineStr"/>
       <c r="AO64" t="inlineStr"/>
       <c r="AP64" t="inlineStr"/>
-      <c r="AQ64" t="n">
-        <v>0</v>
-      </c>
+      <c r="AQ64" t="inlineStr"/>
       <c r="AR64" t="n">
         <v>0</v>
       </c>
@@ -18925,31 +18927,31 @@
         <v>0</v>
       </c>
       <c r="AI65" t="n">
+        <v>643852.992</v>
+      </c>
+      <c r="AJ65" t="n">
         <v>2055</v>
       </c>
-      <c r="AJ65" t="n">
+      <c r="AK65" t="n">
         <v>26</v>
       </c>
-      <c r="AK65" t="n">
+      <c r="AL65" t="n">
         <v>-26</v>
       </c>
-      <c r="AL65" t="n">
+      <c r="AM65" t="n">
         <v>659465.024</v>
       </c>
-      <c r="AM65" t="n">
+      <c r="AN65" t="n">
         <v>152790</v>
       </c>
-      <c r="AN65" t="n">
+      <c r="AO65" t="n">
         <v>143911.008</v>
       </c>
-      <c r="AO65" t="n">
+      <c r="AP65" t="n">
         <v>146516.992</v>
       </c>
-      <c r="AP65" t="n">
+      <c r="AQ65" t="n">
         <v>-140520.016</v>
-      </c>
-      <c r="AQ65" t="n">
-        <v>79838</v>
       </c>
       <c r="AR65" t="n">
         <v>79838</v>
@@ -19078,31 +19080,31 @@
         <v>115033</v>
       </c>
       <c r="CH65" t="n">
+        <v>119798</v>
+      </c>
+      <c r="CI65" t="n">
         <v>132588.008</v>
       </c>
-      <c r="CI65" t="n">
+      <c r="CJ65" t="n">
         <v>144211.008</v>
       </c>
-      <c r="CJ65" t="n">
+      <c r="CK65" t="n">
         <v>162408</v>
       </c>
-      <c r="CK65" t="n">
+      <c r="CL65" t="n">
         <v>244427.008</v>
       </c>
-      <c r="CL65" t="n">
+      <c r="CM65" t="n">
         <v>199382.016</v>
       </c>
-      <c r="CM65" t="n">
+      <c r="CN65" t="n">
         <v>183739.008</v>
       </c>
-      <c r="CN65" t="n">
+      <c r="CO65" t="n">
         <v>175564.992</v>
       </c>
-      <c r="CO65" t="n">
+      <c r="CP65" t="n">
         <v>172246</v>
-      </c>
-      <c r="CP65" t="n">
-        <v>148344.016</v>
       </c>
       <c r="CQ65" t="n">
         <v>148344.016</v>
@@ -19214,31 +19216,31 @@
         <v>-108</v>
       </c>
       <c r="AI66" t="n">
+        <v>-467527.008</v>
+      </c>
+      <c r="AJ66" t="n">
         <v>-240</v>
       </c>
-      <c r="AJ66" t="n">
+      <c r="AK66" t="n">
         <v>-151</v>
       </c>
-      <c r="AK66" t="n">
+      <c r="AL66" t="n">
         <v>-65</v>
       </c>
-      <c r="AL66" t="n">
+      <c r="AM66" t="n">
         <v>-479088</v>
       </c>
-      <c r="AM66" t="n">
+      <c r="AN66" t="n">
         <v>-91051</v>
       </c>
-      <c r="AN66" t="n">
+      <c r="AO66" t="n">
         <v>-115714</v>
       </c>
-      <c r="AO66" t="n">
+      <c r="AP66" t="n">
         <v>-104236</v>
       </c>
-      <c r="AP66" t="n">
+      <c r="AQ66" t="n">
         <v>168656.992</v>
-      </c>
-      <c r="AQ66" t="n">
-        <v>-12683</v>
       </c>
       <c r="AR66" t="n">
         <v>-12683</v>
@@ -19367,31 +19369,31 @@
         <v>-4417</v>
       </c>
       <c r="CH66" t="n">
+        <v>-4927</v>
+      </c>
+      <c r="CI66" t="n">
         <v>-7302</v>
       </c>
-      <c r="CI66" t="n">
+      <c r="CJ66" t="n">
         <v>-4978</v>
       </c>
-      <c r="CJ66" t="n">
+      <c r="CK66" t="n">
         <v>-4341</v>
       </c>
-      <c r="CK66" t="n">
+      <c r="CL66" t="n">
         <v>-6777</v>
       </c>
-      <c r="CL66" t="n">
+      <c r="CM66" t="n">
         <v>-4327</v>
       </c>
-      <c r="CM66" t="n">
+      <c r="CN66" t="n">
         <v>-3578</v>
       </c>
-      <c r="CN66" t="n">
+      <c r="CO66" t="n">
         <v>-5084</v>
       </c>
-      <c r="CO66" t="n">
+      <c r="CP66" t="n">
         <v>-3553</v>
-      </c>
-      <c r="CP66" t="n">
-        <v>-4854</v>
       </c>
       <c r="CQ66" t="n">
         <v>-4854</v>
@@ -19503,31 +19505,31 @@
         <v>20342</v>
       </c>
       <c r="AI67" t="n">
+        <v>8404</v>
+      </c>
+      <c r="AJ67" t="n">
         <v>11652</v>
       </c>
-      <c r="AJ67" t="n">
+      <c r="AK67" t="n">
         <v>11382</v>
       </c>
-      <c r="AK67" t="n">
+      <c r="AL67" t="n">
         <v>9373</v>
       </c>
-      <c r="AL67" t="n">
+      <c r="AM67" t="n">
         <v>-20176</v>
       </c>
-      <c r="AM67" t="n">
+      <c r="AN67" t="n">
         <v>13340</v>
       </c>
-      <c r="AN67" t="n">
+      <c r="AO67" t="n">
         <v>-5025</v>
       </c>
-      <c r="AO67" t="n">
+      <c r="AP67" t="n">
         <v>10638</v>
       </c>
-      <c r="AP67" t="n">
+      <c r="AQ67" t="n">
         <v>1655</v>
-      </c>
-      <c r="AQ67" t="n">
-        <v>3204</v>
       </c>
       <c r="AR67" t="n">
         <v>3204</v>
@@ -19656,31 +19658,31 @@
         <v>16631</v>
       </c>
       <c r="CH67" t="n">
+        <v>16531</v>
+      </c>
+      <c r="CI67" t="n">
         <v>18213</v>
       </c>
-      <c r="CI67" t="n">
+      <c r="CJ67" t="n">
         <v>12975</v>
       </c>
-      <c r="CJ67" t="n">
+      <c r="CK67" t="n">
         <v>18620</v>
       </c>
-      <c r="CK67" t="n">
+      <c r="CL67" t="n">
         <v>23489</v>
       </c>
-      <c r="CL67" t="n">
+      <c r="CM67" t="n">
         <v>11907</v>
       </c>
-      <c r="CM67" t="n">
+      <c r="CN67" t="n">
         <v>1583</v>
       </c>
-      <c r="CN67" t="n">
+      <c r="CO67" t="n">
         <v>12482</v>
       </c>
-      <c r="CO67" t="n">
+      <c r="CP67" t="n">
         <v>8619</v>
-      </c>
-      <c r="CP67" t="n">
-        <v>-15792</v>
       </c>
       <c r="CQ67" t="n">
         <v>-15792</v>
@@ -19792,31 +19794,31 @@
         <v>447</v>
       </c>
       <c r="AI68" t="n">
+        <v>30470</v>
+      </c>
+      <c r="AJ68" t="n">
         <v>432</v>
       </c>
-      <c r="AJ68" t="n">
+      <c r="AK68" t="n">
         <v>-3162</v>
       </c>
-      <c r="AK68" t="n">
+      <c r="AL68" t="n">
         <v>204</v>
       </c>
-      <c r="AL68" t="n">
+      <c r="AM68" t="n">
         <v>21832</v>
       </c>
-      <c r="AM68" t="n">
+      <c r="AN68" t="n">
         <v>13711</v>
       </c>
-      <c r="AN68" t="n">
+      <c r="AO68" t="n">
         <v>5022</v>
       </c>
-      <c r="AO68" t="n">
+      <c r="AP68" t="n">
         <v>3487</v>
       </c>
-      <c r="AP68" t="n">
+      <c r="AQ68" t="n">
         <v>146424</v>
-      </c>
-      <c r="AQ68" t="n">
-        <v>39082</v>
       </c>
       <c r="AR68" t="n">
         <v>39082</v>
@@ -19945,31 +19947,31 @@
         <v>1137</v>
       </c>
       <c r="CH68" t="n">
+        <v>9469</v>
+      </c>
+      <c r="CI68" t="n">
         <v>11884</v>
       </c>
-      <c r="CI68" t="n">
+      <c r="CJ68" t="n">
         <v>14694</v>
       </c>
-      <c r="CJ68" t="n">
+      <c r="CK68" t="n">
         <v>18290</v>
       </c>
-      <c r="CK68" t="n">
+      <c r="CL68" t="n">
         <v>21381</v>
       </c>
-      <c r="CL68" t="n">
+      <c r="CM68" t="n">
         <v>22050</v>
       </c>
-      <c r="CM68" t="n">
+      <c r="CN68" t="n">
         <v>27122</v>
       </c>
-      <c r="CN68" t="n">
+      <c r="CO68" t="n">
         <v>19781</v>
       </c>
-      <c r="CO68" t="n">
+      <c r="CP68" t="n">
         <v>30449</v>
-      </c>
-      <c r="CP68" t="n">
-        <v>24597</v>
       </c>
       <c r="CQ68" t="n">
         <v>24597</v>
@@ -20081,31 +20083,31 @@
         <v>464</v>
       </c>
       <c r="AI69" t="n">
+        <v>50313</v>
+      </c>
+      <c r="AJ69" t="n">
         <v>432</v>
       </c>
-      <c r="AJ69" t="n">
+      <c r="AK69" t="n">
         <v>261</v>
       </c>
-      <c r="AK69" t="n">
+      <c r="AL69" t="n">
         <v>275</v>
       </c>
-      <c r="AL69" t="n">
+      <c r="AM69" t="n">
         <v>54669</v>
       </c>
-      <c r="AM69" t="n">
+      <c r="AN69" t="n">
         <v>19218</v>
       </c>
-      <c r="AN69" t="n">
+      <c r="AO69" t="n">
         <v>6726</v>
       </c>
-      <c r="AO69" t="n">
+      <c r="AP69" t="n">
         <v>14399</v>
       </c>
-      <c r="AP69" t="n">
+      <c r="AQ69" t="n">
         <v>470612.992</v>
-      </c>
-      <c r="AQ69" t="n">
-        <v>114529</v>
       </c>
       <c r="AR69" t="n">
         <v>114529</v>
@@ -20234,31 +20236,31 @@
         <v>32949</v>
       </c>
       <c r="CH69" t="n">
+        <v>32615</v>
+      </c>
+      <c r="CI69" t="n">
         <v>48553</v>
       </c>
-      <c r="CI69" t="n">
+      <c r="CJ69" t="n">
         <v>52743</v>
       </c>
-      <c r="CJ69" t="n">
+      <c r="CK69" t="n">
         <v>71163</v>
       </c>
-      <c r="CK69" t="n">
+      <c r="CL69" t="n">
         <v>60103</v>
       </c>
-      <c r="CL69" t="n">
+      <c r="CM69" t="n">
         <v>57653</v>
       </c>
-      <c r="CM69" t="n">
+      <c r="CN69" t="n">
         <v>57822</v>
       </c>
-      <c r="CN69" t="n">
+      <c r="CO69" t="n">
         <v>70627</v>
       </c>
-      <c r="CO69" t="n">
+      <c r="CP69" t="n">
         <v>50585</v>
-      </c>
-      <c r="CP69" t="n">
-        <v>83294.992</v>
       </c>
       <c r="CQ69" t="n">
         <v>83294.992</v>
@@ -20370,31 +20372,31 @@
         <v>-17</v>
       </c>
       <c r="AI70" t="n">
-        <v>0</v>
+        <v>-19843</v>
       </c>
       <c r="AJ70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK70" t="n">
         <v>-3423</v>
       </c>
-      <c r="AK70" t="n">
+      <c r="AL70" t="n">
         <v>-71</v>
       </c>
-      <c r="AL70" t="n">
+      <c r="AM70" t="n">
         <v>-32837</v>
       </c>
-      <c r="AM70" t="n">
+      <c r="AN70" t="n">
         <v>-5507</v>
       </c>
-      <c r="AN70" t="n">
+      <c r="AO70" t="n">
         <v>-1704</v>
       </c>
-      <c r="AO70" t="n">
+      <c r="AP70" t="n">
         <v>-10912</v>
       </c>
-      <c r="AP70" t="n">
+      <c r="AQ70" t="n">
         <v>-324188.992</v>
-      </c>
-      <c r="AQ70" t="n">
-        <v>-75447</v>
       </c>
       <c r="AR70" t="n">
         <v>-75447</v>
@@ -20523,31 +20525,31 @@
         <v>-31812</v>
       </c>
       <c r="CH70" t="n">
+        <v>-23146</v>
+      </c>
+      <c r="CI70" t="n">
         <v>-36669</v>
       </c>
-      <c r="CI70" t="n">
+      <c r="CJ70" t="n">
         <v>-38049</v>
       </c>
-      <c r="CJ70" t="n">
+      <c r="CK70" t="n">
         <v>-52873</v>
       </c>
-      <c r="CK70" t="n">
+      <c r="CL70" t="n">
         <v>-38722</v>
       </c>
-      <c r="CL70" t="n">
+      <c r="CM70" t="n">
         <v>-35603.008</v>
       </c>
-      <c r="CM70" t="n">
+      <c r="CN70" t="n">
         <v>-30700</v>
       </c>
-      <c r="CN70" t="n">
+      <c r="CO70" t="n">
         <v>-50846</v>
       </c>
-      <c r="CO70" t="n">
+      <c r="CP70" t="n">
         <v>-20136</v>
-      </c>
-      <c r="CP70" t="n">
-        <v>-58698</v>
       </c>
       <c r="CQ70" t="n">
         <v>-58698</v>
@@ -20659,7 +20661,7 @@
         <v>2</v>
       </c>
       <c r="AI71" t="n">
-        <v>0</v>
+        <v>-157</v>
       </c>
       <c r="AJ71" t="n">
         <v>0</v>
@@ -20679,7 +20681,9 @@
       <c r="AO71" t="n">
         <v>0</v>
       </c>
-      <c r="AP71" t="inlineStr"/>
+      <c r="AP71" t="n">
+        <v>0</v>
+      </c>
       <c r="AQ71" t="inlineStr"/>
       <c r="AR71" t="inlineStr"/>
       <c r="AS71" t="inlineStr"/>
@@ -20840,7 +20844,7 @@
         <v>2</v>
       </c>
       <c r="AI72" t="n">
-        <v>0</v>
+        <v>-157</v>
       </c>
       <c r="AJ72" t="n">
         <v>0</v>
@@ -20860,7 +20864,9 @@
       <c r="AO72" t="n">
         <v>0</v>
       </c>
-      <c r="AP72" t="inlineStr"/>
+      <c r="AP72" t="n">
+        <v>0</v>
+      </c>
       <c r="AQ72" t="inlineStr"/>
       <c r="AR72" t="inlineStr"/>
       <c r="AS72" t="inlineStr"/>
@@ -21041,7 +21047,9 @@
       <c r="AO73" t="n">
         <v>0</v>
       </c>
-      <c r="AP73" t="inlineStr"/>
+      <c r="AP73" t="n">
+        <v>0</v>
+      </c>
       <c r="AQ73" t="inlineStr"/>
       <c r="AR73" t="inlineStr"/>
       <c r="AS73" t="inlineStr"/>
@@ -21202,31 +21210,31 @@
         <v>20120</v>
       </c>
       <c r="AI74" t="n">
+        <v>110633.008</v>
+      </c>
+      <c r="AJ74" t="n">
         <v>13338</v>
       </c>
-      <c r="AJ74" t="n">
+      <c r="AK74" t="n">
         <v>7627</v>
       </c>
-      <c r="AK74" t="n">
+      <c r="AL74" t="n">
         <v>9039</v>
       </c>
-      <c r="AL74" t="n">
+      <c r="AM74" t="n">
         <v>69137</v>
       </c>
-      <c r="AM74" t="n">
+      <c r="AN74" t="n">
         <v>61898</v>
       </c>
-      <c r="AN74" t="n">
+      <c r="AO74" t="n">
         <v>-3944</v>
       </c>
-      <c r="AO74" t="n">
+      <c r="AP74" t="n">
         <v>27076</v>
       </c>
-      <c r="AP74" t="n">
+      <c r="AQ74" t="n">
         <v>12650</v>
-      </c>
-      <c r="AQ74" t="n">
-        <v>24289</v>
       </c>
       <c r="AR74" t="n">
         <v>24289</v>
@@ -21355,31 +21363,31 @@
         <v>-617</v>
       </c>
       <c r="CH74" t="n">
+        <v>4785</v>
+      </c>
+      <c r="CI74" t="n">
         <v>-5579</v>
       </c>
-      <c r="CI74" t="n">
+      <c r="CJ74" t="n">
         <v>4714</v>
       </c>
-      <c r="CJ74" t="n">
+      <c r="CK74" t="n">
         <v>28024</v>
       </c>
-      <c r="CK74" t="n">
+      <c r="CL74" t="n">
         <v>82509</v>
       </c>
-      <c r="CL74" t="n">
+      <c r="CM74" t="n">
         <v>14329</v>
       </c>
-      <c r="CM74" t="n">
+      <c r="CN74" t="n">
         <v>18579</v>
       </c>
-      <c r="CN74" t="n">
+      <c r="CO74" t="n">
         <v>19693</v>
       </c>
-      <c r="CO74" t="n">
+      <c r="CP74" t="n">
         <v>39981</v>
-      </c>
-      <c r="CP74" t="n">
-        <v>-4679</v>
       </c>
       <c r="CQ74" t="n">
         <v>-4679</v>
@@ -21491,7 +21499,7 @@
         <v>0</v>
       </c>
       <c r="AI75" t="n">
-        <v>0</v>
+        <v>-33932</v>
       </c>
       <c r="AJ75" t="n">
         <v>0</v>
@@ -21500,22 +21508,22 @@
         <v>0</v>
       </c>
       <c r="AL75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM75" t="n">
         <v>-27538</v>
       </c>
-      <c r="AM75" t="n">
+      <c r="AN75" t="n">
         <v>-14911</v>
       </c>
-      <c r="AN75" t="n">
+      <c r="AO75" t="n">
         <v>1736</v>
       </c>
-      <c r="AO75" t="n">
+      <c r="AP75" t="n">
         <v>-7267</v>
       </c>
-      <c r="AP75" t="n">
+      <c r="AQ75" t="n">
         <v>20442</v>
-      </c>
-      <c r="AQ75" t="n">
-        <v>0</v>
       </c>
       <c r="AR75" t="n">
         <v>0</v>
@@ -21644,31 +21652,31 @@
         <v>3804</v>
       </c>
       <c r="CH75" t="n">
+        <v>5740</v>
+      </c>
+      <c r="CI75" t="n">
         <v>7669</v>
       </c>
-      <c r="CI75" t="n">
+      <c r="CJ75" t="n">
         <v>3558</v>
       </c>
-      <c r="CJ75" t="n">
+      <c r="CK75" t="n">
         <v>-5655</v>
       </c>
-      <c r="CK75" t="n">
+      <c r="CL75" t="n">
         <v>1037</v>
       </c>
-      <c r="CL75" t="n">
+      <c r="CM75" t="n">
         <v>-1630</v>
       </c>
-      <c r="CM75" t="n">
+      <c r="CN75" t="n">
         <v>-6223</v>
       </c>
-      <c r="CN75" t="n">
+      <c r="CO75" t="n">
         <v>-3757</v>
       </c>
-      <c r="CO75" t="n">
+      <c r="CP75" t="n">
         <v>-8628</v>
-      </c>
-      <c r="CP75" t="n">
-        <v>-5861</v>
       </c>
       <c r="CQ75" t="n">
         <v>-5861</v>
@@ -22069,27 +22077,29 @@
         <v>-419</v>
       </c>
       <c r="AI77" t="n">
+        <v>-2811</v>
+      </c>
+      <c r="AJ77" t="n">
         <v>-416</v>
       </c>
-      <c r="AJ77" t="n">
+      <c r="AK77" t="n">
         <v>-314</v>
       </c>
-      <c r="AK77" t="n">
+      <c r="AL77" t="n">
         <v>-307</v>
       </c>
-      <c r="AL77" t="n">
+      <c r="AM77" t="n">
         <v>-3649</v>
       </c>
-      <c r="AM77" t="n">
+      <c r="AN77" t="n">
         <v>-1273</v>
       </c>
-      <c r="AN77" t="n">
+      <c r="AO77" t="n">
         <v>-1464</v>
       </c>
-      <c r="AO77" t="n">
+      <c r="AP77" t="n">
         <v>-1178</v>
       </c>
-      <c r="AP77" t="inlineStr"/>
       <c r="AQ77" t="inlineStr"/>
       <c r="AR77" t="inlineStr"/>
       <c r="AS77" t="inlineStr"/>
@@ -22250,27 +22260,29 @@
         <v>0</v>
       </c>
       <c r="AI78" t="n">
-        <v>0</v>
+        <v>-3506</v>
       </c>
       <c r="AJ78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK78" t="n">
         <v>3062</v>
       </c>
-      <c r="AK78" t="n">
-        <v>0</v>
-      </c>
       <c r="AL78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM78" t="n">
         <v>-3062</v>
       </c>
-      <c r="AM78" t="n">
-        <v>0</v>
-      </c>
       <c r="AN78" t="n">
         <v>0</v>
       </c>
       <c r="AO78" t="n">
         <v>0</v>
       </c>
-      <c r="AP78" t="inlineStr"/>
+      <c r="AP78" t="n">
+        <v>0</v>
+      </c>
       <c r="AQ78" t="inlineStr"/>
       <c r="AR78" t="inlineStr"/>
       <c r="AS78" t="inlineStr"/>
@@ -22368,20 +22380,18 @@
       <c r="AJ79" t="inlineStr"/>
       <c r="AK79" t="inlineStr"/>
       <c r="AL79" t="inlineStr"/>
-      <c r="AM79" t="n">
+      <c r="AM79" t="inlineStr"/>
+      <c r="AN79" t="n">
         <v>-16336</v>
       </c>
-      <c r="AN79" t="n">
+      <c r="AO79" t="n">
         <v>2070</v>
       </c>
-      <c r="AO79" t="n">
+      <c r="AP79" t="n">
         <v>-5341</v>
       </c>
-      <c r="AP79" t="n">
+      <c r="AQ79" t="n">
         <v>549</v>
-      </c>
-      <c r="AQ79" t="n">
-        <v>-5261</v>
       </c>
       <c r="AR79" t="n">
         <v>-5261</v>
@@ -22510,31 +22520,31 @@
         <v>310</v>
       </c>
       <c r="CH79" t="n">
+        <v>-2295</v>
+      </c>
+      <c r="CI79" t="n">
         <v>1519</v>
       </c>
-      <c r="CI79" t="n">
+      <c r="CJ79" t="n">
         <v>-1340</v>
       </c>
-      <c r="CJ79" t="n">
+      <c r="CK79" t="n">
         <v>-6418</v>
       </c>
-      <c r="CK79" t="n">
+      <c r="CL79" t="n">
         <v>-31509</v>
       </c>
-      <c r="CL79" t="n">
+      <c r="CM79" t="n">
         <v>-3641</v>
       </c>
-      <c r="CM79" t="n">
+      <c r="CN79" t="n">
         <v>-4362</v>
       </c>
-      <c r="CN79" t="n">
+      <c r="CO79" t="n">
         <v>-4866</v>
       </c>
-      <c r="CO79" t="n">
+      <c r="CP79" t="n">
         <v>-11916</v>
-      </c>
-      <c r="CP79" t="n">
-        <v>1356</v>
       </c>
       <c r="CQ79" t="n">
         <v>1356</v>
@@ -22646,31 +22656,31 @@
         <v>19701</v>
       </c>
       <c r="AI80" t="n">
+        <v>17858</v>
+      </c>
+      <c r="AJ80" t="n">
         <v>12922</v>
       </c>
-      <c r="AJ80" t="n">
+      <c r="AK80" t="n">
         <v>10375</v>
       </c>
-      <c r="AK80" t="n">
+      <c r="AL80" t="n">
         <v>8732</v>
       </c>
-      <c r="AL80" t="n">
+      <c r="AM80" t="n">
         <v>14267</v>
       </c>
-      <c r="AM80" t="n">
+      <c r="AN80" t="n">
         <v>29378</v>
       </c>
-      <c r="AN80" t="n">
+      <c r="AO80" t="n">
         <v>-1602</v>
       </c>
-      <c r="AO80" t="n">
+      <c r="AP80" t="n">
         <v>13290</v>
       </c>
-      <c r="AP80" t="n">
+      <c r="AQ80" t="n">
         <v>9658</v>
-      </c>
-      <c r="AQ80" t="n">
-        <v>10087</v>
       </c>
       <c r="AR80" t="n">
         <v>10087</v>
@@ -22799,31 +22809,31 @@
         <v>3497</v>
       </c>
       <c r="CH80" t="n">
+        <v>8230</v>
+      </c>
+      <c r="CI80" t="n">
         <v>3609</v>
       </c>
-      <c r="CI80" t="n">
+      <c r="CJ80" t="n">
         <v>6932</v>
       </c>
-      <c r="CJ80" t="n">
+      <c r="CK80" t="n">
         <v>15951</v>
       </c>
-      <c r="CK80" t="n">
+      <c r="CL80" t="n">
         <v>52037</v>
       </c>
-      <c r="CL80" t="n">
+      <c r="CM80" t="n">
         <v>9058</v>
       </c>
-      <c r="CM80" t="n">
+      <c r="CN80" t="n">
         <v>7994</v>
       </c>
-      <c r="CN80" t="n">
+      <c r="CO80" t="n">
         <v>11070</v>
       </c>
-      <c r="CO80" t="n">
+      <c r="CP80" t="n">
         <v>19437</v>
-      </c>
-      <c r="CP80" t="n">
-        <v>-9184</v>
       </c>
       <c r="CQ80" t="n">
         <v>-9184</v>
